--- a/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_2_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_2_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.991972582252842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091876226626382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9823649684549566</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9729770236947881</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9746653483373605</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05367937943810518</v>
       </c>
       <c r="H2" t="n">
-        <v>1.96748523927816</v>
+        <v>1.275963245865148</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03365867544820839</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2776789155261776</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1556687908388186</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2612006394414682</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2316881081067934</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006335268118518</v>
+        <v>1.011332825054811</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2415515505294011</v>
       </c>
       <c r="P2" t="n">
-        <v>285.1546740132637</v>
+        <v>87.84945269355701</v>
       </c>
       <c r="Q2" t="n">
-        <v>457.0161653196799</v>
+        <v>137.8233615131533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9917140951648878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091832541150454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9815493166055095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9718470829451739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9735938479438685</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05540788378547869</v>
       </c>
       <c r="H3" t="n">
-        <v>1.96748523927816</v>
+        <v>1.275992458363016</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03521544957753993</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2892898024402587</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1622526260088993</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2566649957527375</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2353887928204711</v>
       </c>
       <c r="N3" t="n">
-        <v>1.006335268118518</v>
+        <v>1.011697748002511</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2454097810528135</v>
       </c>
       <c r="P3" t="n">
-        <v>285.1546740132637</v>
+        <v>87.78606677751287</v>
       </c>
       <c r="Q3" t="n">
-        <v>457.0161653196799</v>
+        <v>137.7599755971091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_21</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9922384996191039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091789058309524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9831953047634356</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9741595380996479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9757830882508075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05190118878547519</v>
       </c>
       <c r="H4" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276021535358768</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03207387418212751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2655277996081193</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1488008368951234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2658595962690271</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2278183240774877</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006335268118518</v>
+        <v>1.010957412302441</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2375170217824105</v>
       </c>
       <c r="P4" t="n">
-        <v>285.1546740132637</v>
+        <v>87.91682716752962</v>
       </c>
       <c r="Q4" t="n">
-        <v>457.0161653196799</v>
+        <v>137.8907359871259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9914635088723305</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.809167933568236</v>
       </c>
       <c r="D5" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9807499027797497</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9707687199847876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9725679975179133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05708355547765356</v>
       </c>
       <c r="H5" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276094906930075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03674123139660461</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.3003706935309224</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1685559649107484</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2522690163936867</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2389216513371142</v>
       </c>
       <c r="N5" t="n">
-        <v>1.006335268118518</v>
+        <v>1.012051516886122</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2490930406705354</v>
       </c>
       <c r="P5" t="n">
-        <v>285.1546740132637</v>
+        <v>87.7264783978723</v>
       </c>
       <c r="Q5" t="n">
-        <v>457.0161653196799</v>
+        <v>137.7003872174685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9925112395301546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091544918950033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9840387528137297</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9753950676131743</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9769471948212145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05007737574442756</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276184791460875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03046404750788776</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2528319184608446</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1416479829843662</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2706528597981817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2237797482893114</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006335268118518</v>
+        <v>1.010572367722135</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2333065154619272</v>
       </c>
       <c r="P6" t="n">
-        <v>285.1546740132637</v>
+        <v>87.98837190966542</v>
       </c>
       <c r="Q6" t="n">
-        <v>457.0161653196799</v>
+        <v>137.9622807292616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9912210927939769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091435913200279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.860091174301859</v>
+        <v>0.979968301706427</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9697407948114413</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.971587088431945</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.05870459290982771</v>
       </c>
       <c r="H7" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276257683655928</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03823301533754878</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.3109333030730041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1745831617070122</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2480140558732533</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2422903070901263</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006335268118518</v>
+        <v>1.01239375134968</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.252605107073032</v>
       </c>
       <c r="P7" t="n">
-        <v>285.1546740132637</v>
+        <v>87.67047462285993</v>
       </c>
       <c r="Q7" t="n">
-        <v>457.0161653196799</v>
+        <v>137.6443834424562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9909871202703113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091119064786327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9792053758356326</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9687619981220891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9706501602804605</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.06026916825292316</v>
       </c>
       <c r="H8" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276469560336233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.03968915530591351</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.3209910850193812</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1803401176102001</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2438946566281023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2454977968392449</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006335268118518</v>
+        <v>1.012724065500737</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2559491463011896</v>
       </c>
       <c r="P8" t="n">
-        <v>285.1546740132637</v>
+        <v>87.61786922386423</v>
       </c>
       <c r="Q8" t="n">
-        <v>457.0161653196799</v>
+        <v>137.5917780434605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_16</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9927898616876383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8091114889373356</v>
       </c>
       <c r="D9" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9848931838528974</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9766832239666613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9781570120142898</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.04821422809439745</v>
       </c>
       <c r="H9" t="n">
-        <v>1.96748523927816</v>
+        <v>1.27647235243681</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02883325841818504</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.239595261801547</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.134214260109866</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2755609401095982</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2195773852071234</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006335268118518</v>
+        <v>1.010179018793922</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2289252490832396</v>
       </c>
       <c r="P9" t="n">
-        <v>285.1546740132637</v>
+        <v>88.06420222560949</v>
       </c>
       <c r="Q9" t="n">
-        <v>457.0161653196799</v>
+        <v>138.0381110452057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_15</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9930733558276945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8090464895324516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9857564493007552</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9780236748012535</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9794119282228305</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.04631850147447057</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96748523927816</v>
+        <v>1.276907003756564</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02718560774850033</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2258212448368083</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1265034262926543</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2805828614098849</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2152173354413407</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006335268118518</v>
+        <v>1.009778791772667</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2243795829723803</v>
       </c>
       <c r="P10" t="n">
-        <v>285.1546740132637</v>
+        <v>88.14442759565628</v>
       </c>
       <c r="Q10" t="n">
-        <v>457.0161653196799</v>
+        <v>138.1183364152525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_14</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9933601726802811</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8089556062071577</v>
       </c>
       <c r="D11" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9866256332876512</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9794144423482307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9807098368328869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.04440055586055362</v>
       </c>
       <c r="H11" t="n">
-        <v>1.96748523927816</v>
+        <v>1.277514740971283</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02552666080275856</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.2115301904454705</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1185284256241145</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2857048099931748</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.210714394051649</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006335268118518</v>
+        <v>1.009373873863133</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2196849420453558</v>
       </c>
       <c r="P11" t="n">
-        <v>285.1546740132637</v>
+        <v>88.22900658048097</v>
       </c>
       <c r="Q11" t="n">
-        <v>457.0161653196799</v>
+        <v>138.2029154000772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_13</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9936486425638514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8088343366581309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9874979905644499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.980853181136327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9820483502690738</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.04247155642083766</v>
       </c>
       <c r="H12" t="n">
-        <v>1.96748523927816</v>
+        <v>1.278325671004021</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02386165723417109</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1967461998926983</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1103039285634347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2909136702754569</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2060862839221418</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006335268118518</v>
+        <v>1.008966622262798</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2148598036861268</v>
       </c>
       <c r="P12" t="n">
-        <v>285.1546740132637</v>
+        <v>88.31784137558569</v>
       </c>
       <c r="Q12" t="n">
-        <v>457.0161653196799</v>
+        <v>138.2917501951819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.993936456400244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8086775863026361</v>
       </c>
       <c r="D13" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9883702150041948</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9823358244372334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9834235545864822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.04054694397161932</v>
       </c>
       <c r="H13" t="n">
-        <v>1.96748523927816</v>
+        <v>1.279373861352983</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02219690720180602</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1815110614957317</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.1018539843487689</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.2962006484513008</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.2013627174320493</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006335268118518</v>
+        <v>1.008560296846714</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2099351451914203</v>
       </c>
       <c r="P13" t="n">
-        <v>285.1546740132637</v>
+        <v>88.41058973141821</v>
       </c>
       <c r="Q13" t="n">
-        <v>457.0161653196799</v>
+        <v>138.3844985510144</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.994220947443375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8084795430296015</v>
       </c>
       <c r="D14" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9892386183321557</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9838572223641017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9848305707865693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03864455105624166</v>
       </c>
       <c r="H14" t="n">
-        <v>1.96748523927816</v>
+        <v>1.280698177631671</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.02053945024181591</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1658776937406392</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.09320857199122753</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3015407110200424</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.196582173800784</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006335268118518</v>
+        <v>1.008158662432882</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.2049510839206826</v>
       </c>
       <c r="P14" t="n">
-        <v>285.1546740132637</v>
+        <v>88.50669899122964</v>
       </c>
       <c r="Q14" t="n">
-        <v>457.0161653196799</v>
+        <v>138.4806078108259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_10</t>
+          <t>model_2_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9944987407807646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8082335238578338</v>
       </c>
       <c r="D15" t="n">
-        <v>0.860091174301859</v>
+        <v>0.990099418402818</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9854100131977256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9862626558299511</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03678694572999629</v>
       </c>
       <c r="H15" t="n">
-        <v>1.96748523927816</v>
+        <v>1.282343308966096</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.0188965050545494</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1499217431506766</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.084409124102613</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3069155369731646</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1917992328712404</v>
       </c>
       <c r="N15" t="n">
-        <v>1.006335268118518</v>
+        <v>1.007766483603626</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1999645232937156</v>
       </c>
       <c r="P15" t="n">
-        <v>285.1546740132637</v>
+        <v>88.60522446467746</v>
       </c>
       <c r="Q15" t="n">
-        <v>457.0161653196799</v>
+        <v>138.5791332842737</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_9</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9947658733087015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.80793200250173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9909484069014114</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.986985005852278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9877114708318557</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03500062928565088</v>
       </c>
       <c r="H16" t="n">
-        <v>1.96748523927816</v>
+        <v>1.28435958366274</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.01727610373797516</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1337376541984368</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.07550687896820599</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3122920357539554</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1870845511677832</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006335268118518</v>
+        <v>1.007389355328892</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1950491278294056</v>
       </c>
       <c r="P16" t="n">
-        <v>285.1546740132637</v>
+        <v>88.70477847612865</v>
       </c>
       <c r="Q16" t="n">
-        <v>457.0161653196799</v>
+        <v>138.6786872957249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_8</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9950175443919197</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8075665326601691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9917807311974225</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9885704881190801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9891664690287962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03331770359333122</v>
       </c>
       <c r="H17" t="n">
-        <v>1.96748523927816</v>
+        <v>1.286803482176092</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.01568750814768434</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1174457775576435</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.06656664118611659</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3176538969575942</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1825313770104505</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006335268118518</v>
+        <v>1.007034054976113</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1903021156218255</v>
       </c>
       <c r="P17" t="n">
-        <v>285.1546740132637</v>
+        <v>88.80333276765309</v>
       </c>
       <c r="Q17" t="n">
-        <v>457.0161653196799</v>
+        <v>138.7772415872493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9952480728936394</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.807127557777341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9925915363882127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9901518474742772</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9906146771924198</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03177615844084587</v>
       </c>
       <c r="H18" t="n">
-        <v>1.96748523927816</v>
+        <v>1.289738909238856</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.01413998447590489</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.1011962665545339</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.05766812477009566</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3229608520924732</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1782586840545107</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006708602973686</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1858475252810576</v>
       </c>
       <c r="P18" t="n">
-        <v>285.1546740132637</v>
+        <v>88.89807800990422</v>
       </c>
       <c r="Q18" t="n">
-        <v>457.0161653196799</v>
+        <v>138.8719868295005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9954507406233728</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8066043673545532</v>
       </c>
       <c r="D19" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9933751881187419</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9917112302828939</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9920402920678599</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03042091839891943</v>
       </c>
       <c r="H19" t="n">
-        <v>1.96748523927816</v>
+        <v>1.293237486005109</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.01264428659779579</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.08517257907110497</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.04890843283445038</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3281850877725414</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1744159350487203</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006422483825827</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1818411824945036</v>
       </c>
       <c r="P19" t="n">
-        <v>285.1546740132637</v>
+        <v>88.9852496039564</v>
       </c>
       <c r="Q19" t="n">
-        <v>457.0161653196799</v>
+        <v>138.9591584235527</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9956176606575765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8059850565282004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9941257035948021</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9932271162342112</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9934243899723775</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.02930472336160286</v>
       </c>
       <c r="H20" t="n">
-        <v>1.96748523927816</v>
+        <v>1.297378820352594</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.01121183342848654</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.0695958505024613</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.04040384196547392</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.333292845323751</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1711862242167952</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006186832012833</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1784739761860403</v>
       </c>
       <c r="P20" t="n">
-        <v>285.1546740132637</v>
+        <v>89.06001313814181</v>
       </c>
       <c r="Q20" t="n">
-        <v>457.0161653196799</v>
+        <v>139.033921957738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9957397810515313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8052565685403845</v>
       </c>
       <c r="D21" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9948362236312858</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.994674287068268</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.994744818791867</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.02848810372491505</v>
       </c>
       <c r="H21" t="n">
-        <v>1.96748523927816</v>
+        <v>1.302250222881498</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.009855716585351327</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.05472521511266202</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.03229046584900667</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.338245973275162</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1687841927578381</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006014426750779</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1759696852749849</v>
       </c>
       <c r="P21" t="n">
-        <v>285.1546740132637</v>
+        <v>89.11653738401907</v>
       </c>
       <c r="Q21" t="n">
-        <v>457.0161653196799</v>
+        <v>139.0904462036153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9958065796358708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8044043953249312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9954993623091468</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.996022763627216</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9959753638190193</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.02804142128385683</v>
       </c>
       <c r="H22" t="n">
-        <v>1.96748523927816</v>
+        <v>1.307948709097131</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.008590033023727631</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.04086872853353749</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.02472938077863256</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3430050910572747</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1674557293252662</v>
       </c>
       <c r="N22" t="n">
-        <v>1.006335268118518</v>
+        <v>1.005920122867006</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.17458466640379</v>
       </c>
       <c r="P22" t="n">
-        <v>285.1546740132637</v>
+        <v>89.14814506074724</v>
       </c>
       <c r="Q22" t="n">
-        <v>457.0161653196799</v>
+        <v>139.1220538803435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_2</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9958061018896511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8034127756703635</v>
       </c>
       <c r="D23" t="n">
-        <v>0.860091174301859</v>
+        <v>0.996106344332382</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9972382693065854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9970860010570192</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.0280446159750281</v>
       </c>
       <c r="H23" t="n">
-        <v>1.96748523927816</v>
+        <v>1.314579674293213</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.007431531499600079</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.02837860549708563</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.01790506923086524</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3475322915822573</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1674652679663103</v>
       </c>
       <c r="N23" t="n">
-        <v>1.006335268118518</v>
+        <v>1.005920797332257</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.174594611124531</v>
       </c>
       <c r="P23" t="n">
-        <v>285.1546740132637</v>
+        <v>89.14791721857254</v>
       </c>
       <c r="Q23" t="n">
-        <v>457.0161653196799</v>
+        <v>139.1218260381688</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_1</t>
+          <t>model_2_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9957248084739243</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8022645395788868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9966472255173294</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9982815875359623</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9980423948066279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.02858822542031523</v>
       </c>
       <c r="H24" t="n">
-        <v>1.96748523927816</v>
+        <v>1.32225793432406</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.006399191738047087</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.01765782214554312</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.0120285069417951</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3518099660960431</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1690805293944729</v>
       </c>
       <c r="N24" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006035564507401</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1762786375757427</v>
       </c>
       <c r="P24" t="n">
-        <v>285.1546740132637</v>
+        <v>89.10952068903568</v>
       </c>
       <c r="Q24" t="n">
-        <v>457.0161653196799</v>
+        <v>139.0834295086319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_11</t>
+          <t>model_2_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9955474638646181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.8009411557684265</v>
       </c>
       <c r="D25" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9971103342780127</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9991085756326383</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9988058212569001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.02977412963934262</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96748523927816</v>
+        <v>1.33110740795823</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.005515290428699157</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.009159973675988567</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.007337632403997577</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3557988740998631</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.1725518172588821</v>
       </c>
       <c r="N25" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006285933367598</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1798977053510961</v>
       </c>
       <c r="P25" t="n">
-        <v>285.1546740132637</v>
+        <v>89.0282307908487</v>
       </c>
       <c r="Q25" t="n">
-        <v>457.0161653196799</v>
+        <v>139.0021396104449</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_24</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9691155679222252</v>
+        <v>0.9952571976650141</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7057748041729168</v>
+        <v>0.7994228321783072</v>
       </c>
       <c r="D26" t="n">
-        <v>0.860091174301859</v>
+        <v>0.9974821165112592</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5095399728616152</v>
+        <v>0.9996702392820124</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8890815799243426</v>
+        <v>0.9993332081304538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2065243395138133</v>
+        <v>0.03171514105264734</v>
       </c>
       <c r="H26" t="n">
-        <v>1.96748523927816</v>
+        <v>1.341260444796594</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3924667851071095</v>
+        <v>0.004805697281996149</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5537297956759679</v>
+        <v>0.003388509005067461</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4730982903908528</v>
+        <v>0.00409710326613607</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3625903200473817</v>
+        <v>0.3594793441817067</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4544494906079369</v>
+        <v>0.178087453383576</v>
       </c>
       <c r="N26" t="n">
-        <v>1.006335268118518</v>
+        <v>1.006695720943509</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4737963462632503</v>
+        <v>0.1856690049659648</v>
       </c>
       <c r="P26" t="n">
-        <v>285.1546740132637</v>
+        <v>88.90192215280068</v>
       </c>
       <c r="Q26" t="n">
-        <v>457.0161653196799</v>
+        <v>138.8758309723969</v>
       </c>
     </row>
   </sheetData>
